--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N2">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q2">
-        <v>49.52582440261867</v>
+        <v>16.86255163613178</v>
       </c>
       <c r="R2">
-        <v>445.732419623568</v>
+        <v>151.762964725186</v>
       </c>
       <c r="S2">
-        <v>0.07573634167657693</v>
+        <v>0.02459334537909213</v>
       </c>
       <c r="T2">
-        <v>0.0757363416765769</v>
+        <v>0.02459334537909212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q3">
-        <v>16.32520473545867</v>
+        <v>4.651054527324111</v>
       </c>
       <c r="R3">
-        <v>146.926842619128</v>
+        <v>41.859490745917</v>
       </c>
       <c r="S3">
-        <v>0.02496498137483592</v>
+        <v>0.006783373764287049</v>
       </c>
       <c r="T3">
-        <v>0.02496498137483591</v>
+        <v>0.006783373764287048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P4">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q4">
-        <v>4.933231952234665</v>
+        <v>1.405478900729778</v>
       </c>
       <c r="R4">
-        <v>44.39908757011199</v>
+        <v>12.649310106568</v>
       </c>
       <c r="S4">
-        <v>0.007544042834438833</v>
+        <v>0.002049833784028867</v>
       </c>
       <c r="T4">
-        <v>0.007544042834438832</v>
+        <v>0.002049833784028867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N5">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q5">
-        <v>374.5933930737024</v>
+        <v>447.6709339098718</v>
       </c>
       <c r="R5">
-        <v>3371.340537663322</v>
+        <v>4029.038405188846</v>
       </c>
       <c r="S5">
-        <v>0.5728391914687266</v>
+        <v>0.6529098401831078</v>
       </c>
       <c r="T5">
-        <v>0.5728391914687266</v>
+        <v>0.6529098401831077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q6">
         <v>123.4772749013541</v>
@@ -818,10 +818,10 @@
         <v>1111.295474112187</v>
       </c>
       <c r="S6">
-        <v>0.1888250663976247</v>
+        <v>0.1800865808239399</v>
       </c>
       <c r="T6">
-        <v>0.1888250663976247</v>
+        <v>0.1800865808239399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P7">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q7">
-        <v>37.31298000784977</v>
+        <v>37.31298000784978</v>
       </c>
       <c r="R7">
         <v>335.816820070648</v>
       </c>
       <c r="S7">
-        <v>0.05706010221803339</v>
+        <v>0.05441946297676192</v>
       </c>
       <c r="T7">
-        <v>0.0570601022180334</v>
+        <v>0.05441946297676192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N8">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O8">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P8">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q8">
-        <v>33.41375862212266</v>
+        <v>39.93228071927467</v>
       </c>
       <c r="R8">
-        <v>300.723827599104</v>
+        <v>359.3905264734721</v>
       </c>
       <c r="S8">
-        <v>0.05109729863618269</v>
+        <v>0.05823960647804233</v>
       </c>
       <c r="T8">
-        <v>0.05109729863618268</v>
+        <v>0.05823960647804232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>23.334077</v>
       </c>
       <c r="O9">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P9">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q9">
         <v>11.01418213764267</v>
       </c>
       <c r="R9">
-        <v>99.12763923878398</v>
+        <v>99.12763923878401</v>
       </c>
       <c r="S9">
-        <v>0.01684321001672107</v>
+        <v>0.01606373645130088</v>
       </c>
       <c r="T9">
-        <v>0.01684321001672106</v>
+        <v>0.01606373645130088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N10">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O10">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P10">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q10">
-        <v>3.328320601770665</v>
+        <v>3.328320601770668</v>
       </c>
       <c r="R10">
-        <v>29.95488541593599</v>
+        <v>29.954885415936</v>
       </c>
       <c r="S10">
-        <v>0.005089765376859932</v>
+        <v>0.004854220159439108</v>
       </c>
       <c r="T10">
-        <v>0.005089765376859933</v>
+        <v>0.004854220159439107</v>
       </c>
     </row>
   </sheetData>
